--- a/data dictionary.xlsx
+++ b/data dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Github2\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9A8ADB-12F7-40C5-A220-D6879E2C3B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7872A549-FB5C-4D26-B0E7-1C734999F03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3972" yWindow="2640" windowWidth="17280" windowHeight="8964" xr2:uid="{11C54BDF-EB8C-4CAB-A7ED-743570F050D3}"/>
+    <workbookView xWindow="5580" yWindow="2448" windowWidth="17280" windowHeight="8964" xr2:uid="{11C54BDF-EB8C-4CAB-A7ED-743570F050D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>user</t>
   </si>
@@ -96,13 +96,46 @@
   </si>
   <si>
     <t>สีนี้ V1 ตัวทดลอง</t>
+  </si>
+  <si>
+    <t>delet</t>
+  </si>
+  <si>
+    <t>id_api_line</t>
+  </si>
+  <si>
+    <t>change to</t>
+  </si>
+  <si>
+    <t>id_scan</t>
+  </si>
+  <si>
+    <t>id_checklist</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>stu_add</t>
+  </si>
+  <si>
+    <t>stu_birth</t>
+  </si>
+  <si>
+    <t>stu_gender</t>
+  </si>
+  <si>
+    <t>Primary Key</t>
+  </si>
+  <si>
+    <t>user_id_line</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +143,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +186,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -172,8 +243,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -184,36 +259,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -522,225 +615,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC63B31-9714-4B91-9A10-CEE31A7776E5}">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="19" t="s">
         <v>18</v>
       </c>
+      <c r="F1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="I8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="M8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="Q8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="U8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="U2:W2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="J4:K4"/>
@@ -751,8 +918,6 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="U2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data dictionary.xlsx
+++ b/data dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Github2\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7872A549-FB5C-4D26-B0E7-1C734999F03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E54797-CB0F-490D-9F80-69A3C51B4E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2448" windowWidth="17280" windowHeight="8964" xr2:uid="{11C54BDF-EB8C-4CAB-A7ED-743570F050D3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11C54BDF-EB8C-4CAB-A7ED-743570F050D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>user</t>
   </si>
@@ -129,6 +129,21 @@
   </si>
   <si>
     <t>user_id_line</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>type_name</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>id_type</t>
   </si>
 </sst>
 </file>
@@ -203,7 +218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,42 +274,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -615,308 +677,745 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC63B31-9714-4B91-9A10-CEE31A7776E5}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="17" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="17" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="7" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="7" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="7" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="12" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="11" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="11" t="s">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="9" t="s">
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="10" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="4" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="4" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="4" t="s">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="4" t="s">
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="4" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="4" t="s">
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E8" s="13" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="I8" s="15" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="M8" s="12" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="Q8" s="9" t="s">
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="U8" s="11" t="s">
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E9" s="13" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E10" s="13" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
     <mergeCell ref="M2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data dictionary.xlsx
+++ b/data dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Github2\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E54797-CB0F-490D-9F80-69A3C51B4E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C3366F-62C7-4EAC-B86D-80BDCE10656C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11C54BDF-EB8C-4CAB-A7ED-743570F050D3}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>id_checklist</t>
   </si>
   <si>
-    <t>NEW</t>
-  </si>
-  <si>
     <t>stu_add</t>
   </si>
   <si>
@@ -144,13 +141,16 @@
   </si>
   <si>
     <t>id_type</t>
+  </si>
+  <si>
+    <t>NEW(มโน)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,7 +172,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <u/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -297,9 +306,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -318,13 +324,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -356,6 +356,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,7 +689,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,626 +713,625 @@
         <v>22</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="20" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="20" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="22" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="15" t="s">
+      <c r="L4" s="10"/>
+      <c r="M4" s="27" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="15" t="s">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="10"/>
       <c r="U4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="16" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="12" t="s">
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="12" t="s">
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="12" t="s">
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="6" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="27" t="s">
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>32</v>
-      </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1">
         <v>2</v>
       </c>
@@ -1331,76 +1339,76 @@
         <v>0</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1">
         <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
